--- a/dev/timings.xlsx
+++ b/dev/timings.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\aina-the-basics\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB0F8-E5DE-4583-994F-9546E4FD41B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2AA37C-7DB5-4565-8CA9-406CEFC26513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="618" windowWidth="12540" windowHeight="4770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plantgrowth" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Section</t>
   </si>
@@ -29,6 +40,21 @@
   </si>
   <si>
     <t>Intro</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>R setup</t>
+  </si>
+  <si>
+    <t>R demo</t>
+  </si>
+  <si>
+    <t>Python setup</t>
+  </si>
+  <si>
+    <t>Python demo</t>
   </si>
 </sst>
 </file>
@@ -869,13 +895,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="1" max="1" width="11.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
@@ -890,6 +919,46 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
     </row>
